--- a/Mifos Automation Excels/Client/4084-CREATEACTIVECLIENT-UPLOADCLIENT-IDENTITY-DOCUMENT-ADDCLIENT-IDENTITY.xlsx
+++ b/Mifos Automation Excels/Client/4084-CREATEACTIVECLIENT-UPLOADCLIENT-IDENTITY-DOCUMENT-ADDCLIENT-IDENTITY.xlsx
@@ -69,9 +69,6 @@
     <t>Any Other Id Type</t>
   </si>
   <si>
-    <t>Active</t>
-  </si>
-  <si>
     <t>clickonsubmit</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>C:\MifosX-Test-Automation--Initiative\Mifos Automation Excels\UPLOAD\Doc.txt</t>
+  </si>
+  <si>
+    <t>ACTIVE</t>
   </si>
 </sst>
 </file>
@@ -502,15 +502,15 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -575,10 +575,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -592,7 +592,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -630,7 +630,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -651,7 +651,7 @@
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>3</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
@@ -667,23 +667,23 @@
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>3</v>
